--- a/biology/Zoologie/Bias_musicien/Bias_musicien.xlsx
+++ b/biology/Zoologie/Bias_musicien/Bias_musicien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bias musicus
 Le Bias musicien (Bias musicus) est une espèce d'oiseaux de la famille des Vangidae, l'unique représentante du genre Bias.
@@ -512,10 +524,12 @@
           <t>Description et éléments associés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bias musicien mesure environ 16 cm de long[1],[2]. Il est trapu, à queue courte, et possède une crête à l’arrière de la tête[1],[3],[4]. Ses yeux sont jaune, avec une pupille noire[1],[3]. Les pattes sont jaune foncé. Cet oiseau a des vibrisses. Les mâles sont essentiellement noir et blanc, avec une petite tache blanche à l'avant de l'aile (bien visible en vol)[1]. Les femelles ont le dos châtain, la tête noirâtre et les parties inférieures pâles[3]. Cette espèce arboricole qui ressemble fortement aux bulbuls est au moins en partie insectivore.
-Le nom de cet oiseau est sûrement lié à son large répertoire de sons mélodieux et doux, dont une suite assez classique est le ouiitt-ouiitt-ouiitt-tiouu-tiouu-tiueee ou chacun des sons est répétés plus ou moins de fois[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bias musicien mesure environ 16 cm de long,. Il est trapu, à queue courte, et possède une crête à l’arrière de la tête. Ses yeux sont jaune, avec une pupille noire,. Les pattes sont jaune foncé. Cet oiseau a des vibrisses. Les mâles sont essentiellement noir et blanc, avec une petite tache blanche à l'avant de l'aile (bien visible en vol). Les femelles ont le dos châtain, la tête noirâtre et les parties inférieures pâles. Cette espèce arboricole qui ressemble fortement aux bulbuls est au moins en partie insectivore.
+Le nom de cet oiseau est sûrement lié à son large répertoire de sons mélodieux et doux, dont une suite assez classique est le ouiitt-ouiitt-ouiitt-tiouu-tiouu-tiueee ou chacun des sons est répétés plus ou moins de fois,.
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Répartition, sous-espèces, et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le congrès ornithologique international, il existe trois sous-espèces :
 B. m. musicus (Vieillot, 1818) : Afrique équatoriale ;
 B. m. changamwensis van Someren, 1919 : Kenya et Tanzanie ;
 B. m. clarens Clancey, 1966 : Malawi, Zimbabwe et Mozambique.
-Notons que la répartition globale est subsaharienne, et pousse jusqu'en Afrique centrale puis en Afrique du Sud-Est[3],[5],[6].
-L'espèce est forestière et on la retrouve dans la canopée des forêts humides, à basse et moyenne altitude, souvent le long de la lisière de la forêt et des clairières[3],[1].
+Notons que la répartition globale est subsaharienne, et pousse jusqu'en Afrique centrale puis en Afrique du Sud-Est.
+L'espèce est forestière et on la retrouve dans la canopée des forêts humides, à basse et moyenne altitude, souvent le long de la lisière de la forêt et des clairières,.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'UICN (11/2021), l'espèce est de préoccupation mineure[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'UICN (11/2021), l'espèce est de préoccupation mineure.
 </t>
         </is>
       </c>
